--- a/data/df2.xlsx
+++ b/data/df2.xlsx
@@ -436,300 +436,300 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Blend</t>
+          <t>Crop2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Crop</t>
+          <t>Blend2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Soy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Soy</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Soy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Soy</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Soy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Soy</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Blend X</t>
+          <t>Soy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Soy</t>
+          <t>Blend X</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Wheat</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Wheat</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Corn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Corn</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Soy</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Soy</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Soy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Soy</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Soy</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Soy</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Blend Y</t>
+          <t>Soy</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Soy</t>
+          <t>Blend Y</t>
         </is>
       </c>
     </row>
